--- a/docs/05-Power-Budget/EGR 304 Team 103 Individual Power Budget.xlsx
+++ b/docs/05-Power-Budget/EGR 304 Team 103 Individual Power Budget.xlsx
@@ -8,27 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b9eee4bdecec0601/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{599DED51-3548-492B-BB7C-BE4F51722DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C125BDCE-3992-46AF-9F60-7015941C9CD5}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{599DED51-3548-492B-BB7C-BE4F51722DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{707090B2-8990-49AE-9396-5C1D7160C740}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Budget" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -55,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>Team Number:</t>
   </si>
@@ -129,9 +116,6 @@
     <t>Power Source 1 Selection</t>
   </si>
   <si>
-    <t>Plug-in Wall Supply</t>
-  </si>
-  <si>
     <t>Power Rails Connected to External Power Source 1</t>
   </si>
   <si>
@@ -174,15 +158,6 @@
     <t>+5 - 35V</t>
   </si>
   <si>
-    <t>100 - 240VAC</t>
-  </si>
-  <si>
-    <t>+9V</t>
-  </si>
-  <si>
-    <t>Model: 0930</t>
-  </si>
-  <si>
     <t>Subtotal</t>
   </si>
   <si>
@@ -190,13 +165,34 @@
   </si>
   <si>
     <t>IR Emitter/Detector Subsystem Power Budget</t>
+  </si>
+  <si>
+    <t>+12V</t>
+  </si>
+  <si>
+    <t>12V 5A Switching Power Supply</t>
+  </si>
+  <si>
+    <t>110 - 220V</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>Total Current</t>
+  </si>
+  <si>
+    <t>Total Remaining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -286,6 +282,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -307,7 +309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -925,11 +927,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -963,12 +978,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -980,13 +989,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1010,15 +1012,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1033,14 +1026,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1052,9 +1037,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1069,7 +1051,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1077,11 +1058,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1089,10 +1066,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1109,10 +1082,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1160,13 +1129,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1176,12 +1138,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1190,6 +1146,83 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1521,163 +1554,163 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="8.625" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
+      <c r="A1" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="109">
         <v>103</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="41"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="89">
+        <v>1</v>
+      </c>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="111" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="108"/>
+      <c r="B8" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="42">
         <v>2</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="100">
-        <v>1</v>
-      </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-    </row>
-    <row r="7" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="55">
-        <v>2</v>
-      </c>
-      <c r="F8" s="56">
+      <c r="F8" s="43">
         <v>200</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="43">
         <f t="shared" ref="G8:G10" si="0">E8*F8</f>
         <v>400</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="44" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="58" t="s">
+      <c r="A9" s="108"/>
+      <c r="B9" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>32</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
@@ -1689,392 +1722,483 @@
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="60" t="s">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="108"/>
+      <c r="B10" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="D10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="63">
+      <c r="E10" s="11">
         <v>2</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="12">
         <v>30</v>
       </c>
-      <c r="G10" s="64">
+      <c r="G10" s="12">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H10" s="65" t="s">
+      <c r="H10" s="46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="104"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="105"/>
-      <c r="B13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="11">
-        <v>2</v>
-      </c>
-      <c r="F13" s="12">
-        <v>200</v>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="110"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="12">
+        <f>SUM(G8:G10)</f>
+        <v>810</v>
+      </c>
+      <c r="H11" s="115" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="110"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="112" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="113">
+        <v>0.25</v>
+      </c>
+      <c r="H12" s="115"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="110"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="112" t="s">
+        <v>43</v>
       </c>
       <c r="G13" s="12">
-        <f t="shared" ref="G13:G15" si="1">E13*F13</f>
-        <v>400</v>
-      </c>
-      <c r="H13" s="13" t="s">
+        <f>G11*(1+G12)</f>
+        <v>1012.5</v>
+      </c>
+      <c r="H13" s="115" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
+    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="119" t="s">
+        <v>42</v>
+      </c>
       <c r="B14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="C14" s="114">
+        <v>352</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E14" s="11">
         <v>1</v>
       </c>
       <c r="F14" s="12">
+        <v>5000</v>
+      </c>
+      <c r="G14" s="12">
+        <v>5000</v>
+      </c>
+      <c r="H14" s="115" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="110"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="50">
+        <f>G14-G13</f>
+        <v>3987.5</v>
+      </c>
+      <c r="H15" s="118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="105"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="107"/>
+    </row>
+    <row r="17" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="85"/>
+      <c r="B18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="11">
+        <v>2</v>
+      </c>
+      <c r="F18" s="12">
+        <v>200</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" ref="G18:G20" si="1">E18*F18</f>
+        <v>400</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="86"/>
+      <c r="B19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12">
         <v>350</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G19" s="12">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H19" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="106"/>
-      <c r="B15" s="83" t="s">
+    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="86"/>
+      <c r="B20" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="D20" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="20">
+      <c r="E20" s="18">
         <v>2</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F20" s="17">
         <v>30</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G20" s="17">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H20" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23" t="s">
+    <row r="21" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="101"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="20">
+        <f>SUM(G18:G20)</f>
+        <v>810</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="101"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="52">
+        <v>0.25</v>
+      </c>
+      <c r="H22" s="52"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="101"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="20">
+        <f>G21*(1+G22)</f>
+        <v>1012.5</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="101"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="26">
+        <v>1</v>
+      </c>
+      <c r="F25" s="27">
+        <v>1500</v>
+      </c>
+      <c r="G25" s="28">
+        <f>E25*F25</f>
+        <v>1500</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="53">
+        <f>G25-G23</f>
+        <v>487.5</v>
+      </c>
+      <c r="H26" s="54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="90"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="92"/>
+    </row>
+    <row r="28" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25">
-        <f>SUM(G13:G15)</f>
-        <v>810</v>
-      </c>
-      <c r="H16" s="26" t="s">
+      <c r="C29" s="72">
+        <v>352</v>
+      </c>
+      <c r="D29" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="75">
+        <v>5000</v>
+      </c>
+      <c r="G29" s="76">
+        <v>5000</v>
+      </c>
+      <c r="H29" s="77" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="107"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="H17" s="68"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="25">
-        <f>G16*(1+G17)</f>
-        <v>1012.5</v>
-      </c>
-      <c r="H18" s="26" t="s">
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="60"/>
+    </row>
+    <row r="31" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="67">
+        <v>1</v>
+      </c>
+      <c r="F31" s="68">
+        <v>1500</v>
+      </c>
+      <c r="G31" s="69">
+        <f t="shared" ref="G31" si="2">E31*F31</f>
+        <v>1500</v>
+      </c>
+      <c r="H31" s="70" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="107"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="31">
-        <v>1</v>
-      </c>
-      <c r="F20" s="32">
-        <v>1500</v>
-      </c>
-      <c r="G20" s="33">
-        <f>E20*F20</f>
-        <v>1500</v>
-      </c>
-      <c r="H20" s="21" t="s">
+    <row r="32" spans="1:8" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="84"/>
+      <c r="B32" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="61">
+        <f>G29-SUM(G31:G31)</f>
+        <v>3500</v>
+      </c>
+      <c r="H32" s="62" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="69">
-        <f>G20-G18</f>
-        <v>487.5</v>
-      </c>
-      <c r="H21" s="70" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="71"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="72"/>
-    </row>
-    <row r="23" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="108" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="76" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="95">
-        <v>3000</v>
-      </c>
-      <c r="G24" s="96">
-        <v>3000</v>
-      </c>
-      <c r="H24" s="97" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="78"/>
-    </row>
-    <row r="26" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="110" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="85" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="87">
-        <v>1</v>
-      </c>
-      <c r="F26" s="88">
-        <v>1500</v>
-      </c>
-      <c r="G26" s="89">
-        <f t="shared" ref="G26" si="2">E26*F26</f>
-        <v>1500</v>
-      </c>
-      <c r="H26" s="90" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="111"/>
-      <c r="B27" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="81">
-        <f>G24-SUM(G26:G26)</f>
-        <v>1500</v>
-      </c>
-      <c r="H27" s="82" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A21:C24"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A16:C19"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A8:A10"/>
   </mergeCells>
-  <conditionalFormatting sqref="G21">
+  <conditionalFormatting sqref="G26">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
